--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3674.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3674.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.269906957404162</v>
+        <v>5.724581718444824</v>
       </c>
       <c r="B1">
-        <v>2.061981640790215</v>
+        <v>4.606094360351562</v>
       </c>
       <c r="C1">
-        <v>5.869352040049754</v>
+        <v>3.125218152999878</v>
       </c>
       <c r="D1">
-        <v>4.088595010613144</v>
+        <v>1.968222856521606</v>
       </c>
       <c r="E1">
-        <v>1.113711556729468</v>
+        <v>1.455422759056091</v>
       </c>
     </row>
   </sheetData>
